--- a/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809363426</v>
+        <v>44341.376736111</v>
       </c>
       <c r="D10" s="2">
         <v>554</v>
@@ -2277,7 +2277,7 @@
       <c r="Q38" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809363426</v>
+        <v>44341.376736111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3338,7 +3338,7 @@
       <c r="Q38" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -95,34 +95,666 @@
     <t>header</t>
   </si>
   <si>
-    <t>niet in oude Excel openen. Op school / in Teams.</t>
-  </si>
-  <si>
-    <t>niet knippen?</t>
-  </si>
-  <si>
-    <t>wat betekent naam tabblad: hoe kun je het zien?</t>
-  </si>
-  <si>
-    <t>donkergroen alleen invullen als SE</t>
-  </si>
-  <si>
-    <t>geen vormgeving doen</t>
-  </si>
-  <si>
-    <t>tijd in minuten, geen toevoeging</t>
-  </si>
-  <si>
-    <t>laat niet relevante dingen open</t>
-  </si>
-  <si>
-    <t>niet formatten. Layouten doen wij.</t>
-  </si>
-  <si>
-    <t>zie je iets waarvan je denkt dat het niet klopt! Mail me.</t>
-  </si>
-  <si>
-    <t>structuur etc. moet nog weer beveiligd!</t>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">INSTRUCTIE </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">graag uw aandacht voor het volgende:</t>
+    </r>
+  </si>
+  <si>
+    <t>Vorig jaar zijn we overgestapt van de invoer van PTA's via Word naar Excel. Dit was een eerste stap in een groter proces waarbij we toewillen naar het werken met volledige PTA-cohorten: PTA's waarin alle leerjaren van een examengroep staan beschreven. Dit nieuwe invoerdocument is een uitwerking daarvan.</t>
+  </si>
+  <si>
+    <t>COHORTEN en COHORTJAREN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In dit document zie je tabbladen met namen als </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">A 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">H 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Dat jaartal slaat op het kalenderjaar waarin een groep start met het schoolexamen (gerekend vanaf mavo-3, havo-4 en VWO-4). Voor </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">A 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> gaat het dus om de atheneum-groep die in het schooljaar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2019-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in klas 4 zat, in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2020-2021</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in klas 5 en in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2021-2022</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in klas 6. Het volledige </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">cohort</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> is dan de periode 2019-2022. Het betreft hier dus de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">huidige vwo-5</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Als je klikt op een tabblad wordt dit vermeld.</t>
+    </r>
+  </si>
+  <si>
+    <t>SCHRIJFRECHT en leesrecht: CONTROLE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Voor de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">huidige vwo-5</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> zijn de leerjaren 4 en 5 van het PTA al voorbij en uitgevoerd. Daarom zijn de bijbehorende velden geblokkeerd. Wij hebben alle informatie van het huidige schooljaar overgenomen in dit nieuwe bestand. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF5B9BD5"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Wil je controleren of de gegevens van het huidige schooljaar juist zijn?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Klopt er iets niet? Stuur dan een mailtje naar VNR. Velden voor het komende schooljaar zijn wel beschrijfbaar. Hier vul je het PTA verder in. Net als vorig jaar verwachten we het </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">volledige onderwijsprogramma</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> voor een leerlaag, dus ook de proefwerken en andere opdrachten die niet voor het schoolexamen gelden. Als service hebben we het cohortjaar dat je voor dit schooljaar had ingevuld gekopieerd naar het PTA voor de nieuwe groep.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">HEEL BELANGRIJK: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">do's &amp; don'ts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lees dit gedeelte echt even goed door. Vorig jaar hebben we veel nawerk gehad door </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">afwijkende invoer</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in het Excelbestand, niet volledig ingevulde gegevens en niet kloppende gegevens. Allereerst: Open dit bestand niet in een verouderde Excel-versie. Open hem op je schoollaptop of een werkstation op school </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">vanuit Teams</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Download het bestand dus </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">niet</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Dit leidt tot ongewenste dubbelingen en inconsistentie. Let daarnaast bij de over op de volgende punten:</t>
+    </r>
+  </si>
+  <si>
+    <t>overzicht aandachtspunten bij het werken met dit document</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>De groene velden zijn beschrijfbaar. De donkergroene velden hoef je alleen in te vullen als er sprake is van een PTA-onderdeel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wil je iets verplaatsen? Ga alsjeblieft </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFC00000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">niet knippen</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> (geen Ctrl-x). Daarmee verwijder je namelijk ook voor jou onzichtbare onderdelen. In plaats daarvan: het meest veilig is even overschrijven, maar als je toch wilt kopiëren: kies dan in het nieuwe veld voor het </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">plakken van waarden</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> en delete vervolgens de inhoud van de velden die moeten worden geleegd.</t>
+    </r>
+  </si>
+  <si>
+    <t>Vorig jaar hebben secties soms zelf geprobeerd hun PTA te layouten binnen Excel met b.v. spaties. Doe dit niet. Het PTA wordt uiteindelijk als PDF afgedrukt in een andere layout. Zelf aanpassen heeft dus geen zin, maar zorgt wel voor problemen bij de verdere verwerking!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De kolommen </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">weging VD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">weging SE</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> en </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">duur</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> zijn </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">numeriek</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Vul hier alleen getallen in (en dus niet dingen als </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">100 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FFC00000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">min</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">15</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FFC00000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">, etc.)</t>
+    </r>
   </si>
   <si>
     <t>*</t>
@@ -249,7 +881,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -305,13 +937,31 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF44546A"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
     </font>
     <font>
       <b val="0"/>
@@ -359,7 +1009,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +1079,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44546A"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <left style="medium">
@@ -444,6 +1100,20 @@
       </top>
       <bottom style="medium">
         <color rgb="FFC00000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEEAF6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEEAF6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEEAF6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEEAF6"/>
       </bottom>
     </border>
     <border>
@@ -477,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -547,18 +1217,36 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="11" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="12" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="12" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
@@ -566,43 +1254,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="7" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
@@ -610,7 +1298,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="8" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
@@ -1015,8 +1703,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="235" zoomScaleNormal="235" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="10" zoomScaleNormal="10" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1150,7 +1838,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WOf0LQsboE6wZUxhTrp6vWUPTX/PxW+vApAM6zdPOcGfqvqNuFNYmJEfEBPc31Vp+JEs0x9YELJOz7LGwIuUbA==" saltValue="ss5ASBCr8o3o1bhwu9U1Vw==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="true"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -1170,66 +1858,149 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="235" zoomScaleNormal="235" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="175" zoomScaleNormal="175" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="true" style="8"/>
+    <col min="2" max="2" width="95.140625" customWidth="true" style="8"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="8"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3" customHeight="1" ht="74.25">
+      <c r="B2" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" customHeight="1" ht="106.5">
+      <c r="B4" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="6" spans="1:3" customHeight="1" ht="161.25">
+      <c r="B6" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="8" spans="1:3" customHeight="1" ht="107.25">
+      <c r="B8" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="23" t="s">
+    <row r="10" spans="1:3" customHeight="1" ht="34.5">
+      <c r="A10" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="B10" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="23" customFormat="1">
+      <c r="A11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customHeight="1" ht="51.75">
+      <c r="A12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customHeight="1" ht="34.5">
+      <c r="A13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="24"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="24"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="24"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="24"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="24"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="24"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="24"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="24"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="24"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="24"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mV7BNsQoFesF/gHTqLwFID77XCVLa9wfBt+/qI6NBt8ZJQTq+zXXlgMeU+Yap4FYo3SfLn1U8mRQOMZH2GCMGQ==" saltValue="vl1+j0HvtxTC7FXpJM93Ug==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -1283,180 +2054,180 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="26" t="str">
+        <v>41</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="32" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige M3 (cohort 2020 - 2021)</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28" t="str">
+      <c r="F4" s="30"/>
+      <c r="G4" s="34" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="29" t="s">
+      <c r="H5" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="I5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="J5" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="K5" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="L5" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="24"/>
+      <c r="M5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2">
         <v>550</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="30">
+      <c r="F6" s="30"/>
+      <c r="G6" s="36">
         <v>1</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="30">
+      <c r="H6" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="36">
         <v>1</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30" t="s">
+      <c r="K6" s="42"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="43">
         <v>1</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -1465,38 +2236,38 @@
         <v>551</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="30">
+      <c r="F7" s="30"/>
+      <c r="G7" s="36">
         <v>2</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="30">
+      <c r="H7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="36">
         <v>1</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="43">
         <v>1</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="30"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>169</v>
@@ -1505,38 +2276,38 @@
         <v>552</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="30">
+      <c r="F8" s="30"/>
+      <c r="G8" s="36">
         <v>2</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="30">
+      <c r="H8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="36">
         <v>1</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30" t="s">
+      <c r="K8" s="42"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="43">
         <v>1</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="30"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -1546,79 +2317,79 @@
         <v>553</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="30">
+      <c r="F9" s="30"/>
+      <c r="G9" s="36">
         <v>3</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="30">
+      <c r="H9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="36">
         <v>1</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30" t="s">
+      <c r="K9" s="42"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="43">
         <v>1</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="30"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.376736111</v>
+        <v>44341.382847222</v>
       </c>
       <c r="D10" s="2">
         <v>554</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="30">
+      <c r="F10" s="30"/>
+      <c r="G10" s="36">
         <v>3</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="30">
+      <c r="H10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="36">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30" t="s">
+      <c r="K10" s="42"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="43">
         <v>1</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="24"/>
+      <c r="P10" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -1628,653 +2399,653 @@
         <v>555</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="30">
+      <c r="F11" s="30"/>
+      <c r="G11" s="36">
         <v>4</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="30">
+      <c r="H11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="36">
         <v>2</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30" t="s">
+      <c r="K11" s="42"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="43">
         <v>2</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="24"/>
+      <c r="P11" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>421</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="31" t="str">
+      <c r="F13" s="30"/>
+      <c r="G13" s="37" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="28" t="str">
+      <c r="F16" s="30"/>
+      <c r="G16" s="34" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="29" t="s">
+      <c r="H17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="I17" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="J17" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="K17" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="L17" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="24"/>
+      <c r="M17" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="24"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="30"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="24"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="30"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="24"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="30"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="24"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="42"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="24"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="24"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="F24" s="24"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2">
         <v>422</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="31" t="str">
+      <c r="F25" s="30"/>
+      <c r="G25" s="37" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="F26" s="24"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="F27" s="24"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75" hidden="true">
       <c r="C28" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="28" t="str">
+      <c r="F28" s="30"/>
+      <c r="G28" s="34" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5" hidden="true">
       <c r="D29" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="29" t="s">
+      <c r="H29" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="I29" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="29" t="s">
+      <c r="J29" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O29" s="29" t="s">
+      <c r="K29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="33" t="s">
+      <c r="L29" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="24"/>
+      <c r="M29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="24"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="42"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="24"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="40"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="42"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="30"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="24"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="42"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="24"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="42"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="24"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="24"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="42"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="30"/>
     </row>
     <row r="36" spans="1:17" hidden="true">
-      <c r="F36" s="24"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
     </row>
     <row r="37" spans="1:17" hidden="true">
       <c r="C37" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2">
         <v>668</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="31" t="str">
+      <c r="F37" s="30"/>
+      <c r="G37" s="37" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="24"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2420,220 +3191,220 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="26" t="str">
+      <c r="F2" s="30"/>
+      <c r="G2" s="32" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>verouderd PTA</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28" t="str">
+      <c r="F4" s="30"/>
+      <c r="G4" s="34" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="29" t="s">
+      <c r="H5" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="I5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="J5" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="K5" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="L5" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="24"/>
+      <c r="M5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="24"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="42"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="24"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="30"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="24"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="30"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2641,61 +3412,61 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="24"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="30"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.376736111</v>
+        <v>44341.382847222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="24"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2703,639 +3474,639 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="24"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="42"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="31" t="str">
+      <c r="F13" s="30"/>
+      <c r="G13" s="37" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>2024</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="28" t="str">
+      <c r="F16" s="30"/>
+      <c r="G16" s="34" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="29" t="s">
+      <c r="H17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="I17" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="J17" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="K17" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="L17" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="24"/>
+      <c r="M17" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="24"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="30"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="24"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="30"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="24"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="42"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="30"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="24"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="42"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="24"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="42"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="24"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="F24" s="24"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="31" t="str">
+      <c r="F25" s="30"/>
+      <c r="G25" s="37" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="F26" s="24"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="F27" s="24"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75" hidden="true">
       <c r="C28" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="28" t="str">
+      <c r="F28" s="30"/>
+      <c r="G28" s="34" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5" hidden="true">
       <c r="D29" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="29" t="s">
+      <c r="H29" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="I29" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="29" t="s">
+      <c r="J29" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O29" s="29" t="s">
+      <c r="K29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="33" t="s">
+      <c r="L29" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="24"/>
+      <c r="M29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="24"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="42"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="24"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="40"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="42"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="30"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="24"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="42"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="24"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="42"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="24"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72" hidden="true">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="24"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="42"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="30"/>
     </row>
     <row r="36" spans="1:17" hidden="true">
-      <c r="F36" s="24"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
     </row>
     <row r="37" spans="1:17" hidden="true">
       <c r="C37" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="31" t="str">
+      <c r="F37" s="30"/>
+      <c r="G37" s="37" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="24"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382847222</v>
+        <v>44342.630046296</v>
       </c>
       <c r="D10" s="2">
         <v>554</v>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382847222</v>
+        <v>44342.630046296</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
     <sheet name="instructie" sheetId="2" r:id="rId5"/>
-    <sheet name="M 2020" sheetId="3" r:id="rId6"/>
-    <sheet name="M 2019" sheetId="4" r:id="rId7"/>
+    <sheet name="M 2021" sheetId="3" r:id="rId6"/>
+    <sheet name="M 2020" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -121,7 +122,7 @@
     </r>
   </si>
   <si>
-    <t>Vorig jaar zijn we overgestapt van de invoer van PTA's via Word naar Excel. Dit was een eerste stap in een groter proces waarbij we toewillen naar het werken met volledige PTA-cohorten: PTA's waarin alle leerjaren van een examengroep staan beschreven. Dit nieuwe invoerdocument is een uitwerking daarvan.</t>
+    <t>Vorig jaar zijn we overgestapt van de invoer van PTA's in Word naar het invoeren via Excel. Dit was een eerste stap in een groter proces op weg naar volledige PTA-cohorten: PTA's waarin alle leerjaren van een examengroep staan beschreven. Dit nieuwe invoerdocument is een uitwerking van deze wens.</t>
   </si>
   <si>
     <t>COHORTEN en COHORTJAREN</t>
@@ -176,7 +177,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">. Dat jaartal slaat op het kalenderjaar waarin een groep start met het schoolexamen (gerekend vanaf mavo-3, havo-4 en VWO-4). Voor </t>
+      <t xml:space="preserve">. Dat jaartal slaat op het kalenderjaar waarin een groep start met het schoolexamen (gerekend vanaf mavo-3, havo-4 of VWO-4). Voor </t>
     </r>
     <r>
       <rPr>
@@ -200,7 +201,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve"> gaat het dus om de atheneum-groep die in het schooljaar </t>
+      <t xml:space="preserve"> gaat het dus om de atheneumjaarlaag die in het schooljaar </t>
     </r>
     <r>
       <rPr>
@@ -320,7 +321,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">. Als je klikt op een tabblad wordt dit vermeld.</t>
+      <t xml:space="preserve">. Als je klikt op een tabblad wordt de bijbehorende groep vermeld.</t>
     </r>
   </si>
   <si>
@@ -352,7 +353,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve"> zijn de leerjaren 4 en 5 van het PTA al voorbij en uitgevoerd. Daarom zijn de bijbehorende velden geblokkeerd. Wij hebben alle informatie van het huidige schooljaar overgenomen in dit nieuwe bestand. </t>
+      <t xml:space="preserve"> liggen de leerjaren 4 en 5 van het PTA al achter ons. Daarom zijn de bijbehorende velden geblokkeerd. Wij hebben alle informatie van het huidige schooljaar overgenomen in dit nieuwe bestand. </t>
     </r>
     <r>
       <rPr>
@@ -412,7 +413,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve"> voor een leerlaag, dus ook de proefwerken en andere opdrachten die niet voor het schoolexamen gelden. Als service hebben we het cohortjaar dat je voor dit schooljaar had ingevuld gekopieerd naar het PTA voor de nieuwe groep.</t>
+      <t xml:space="preserve"> voor een leerlaag, dus ook de proefwerken en andere opdrachten die niet voor het schoolexamen gelden. Als service hebben we het cohortjaar dat je voor dit schooljaar had ingevuld gekopieerd naar het PTA voor de nieuwe groep in de hoop dat dit jullie werk bespaard.</t>
     </r>
   </si>
   <si>
@@ -467,7 +468,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve"> in het Excelbestand, niet volledig ingevulde gegevens en niet kloppende gegevens. Allereerst: Open dit bestand niet in een verouderde Excel-versie. Open hem op je schoollaptop of een werkstation op school </t>
+      <t xml:space="preserve"> in het Excelbestand, niet volledig ingevulde gegevens en niet kloppende gegevens. Allereerst: Open dit bestand niet in een verouderde Excel-versie. Openen hem op je schoollaptop of een werkstation op school </t>
     </r>
     <r>
       <rPr>
@@ -515,7 +516,7 @@
         <sz val="12"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">. Dit leidt tot ongewenste dubbelingen en inconsistentie. Let daarnaast bij de over op de volgende punten:</t>
+      <t xml:space="preserve">. Dit leidt tot ongewenste dubbelingen en inconsistentie. Open in de Excel-applicatie kan gewoon, maar dan wel vanuit Teams. Let daarnaast bij de over op de volgende punten:</t>
     </r>
   </si>
   <si>
@@ -757,6 +758,9 @@
     </r>
   </si>
   <si>
+    <t>Tot slot: is er toch iets mis gegaan of twijfel je? Helemaal niet erg, maar geef het even aan!</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -814,10 +818,40 @@
     <t>verplichte SE-domeinen</t>
   </si>
   <si>
+    <t>TOTAAL</t>
+  </si>
+  <si>
     <t>niveau</t>
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>startJaar</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>eindJaar</t>
+  </si>
+  <si>
+    <t>vandaag</t>
+  </si>
+  <si>
+    <t>huidigStartjaar</t>
+  </si>
+  <si>
+    <t>huidigSchooljaar</t>
+  </si>
+  <si>
+    <t>positiePTA</t>
+  </si>
+  <si>
+    <t>groep</t>
+  </si>
+  <si>
+    <t>mavo?</t>
   </si>
   <si>
     <t xml:space="preserve">Culturele Activiteit 1 (CA1) + verwerking
@@ -827,53 +861,26 @@
     <t>K2/K3</t>
   </si>
   <si>
-    <t>startJaar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oriëntatie op leren en werken </t>
   </si>
   <si>
     <t>K1/K2</t>
-  </si>
-  <si>
-    <t>cid</t>
   </si>
   <si>
     <t xml:space="preserve">Culturele Activiteit 2 (CA2) + verwerking 
 </t>
   </si>
   <si>
-    <t>eindJaar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Culturele Activiteit 3 (CA3) + verwerking </t>
   </si>
   <si>
-    <t>vandaag</t>
-  </si>
-  <si>
     <t xml:space="preserve">Culturele Activiteit 4 (CA4) + verwerking </t>
   </si>
   <si>
-    <t>huidigStartjaar</t>
-  </si>
-  <si>
     <t>Reflectie en kunstdossier</t>
   </si>
   <si>
     <t>K2/K4</t>
-  </si>
-  <si>
-    <t>huidigSchooljaar</t>
-  </si>
-  <si>
-    <t>positiePTA</t>
-  </si>
-  <si>
-    <t>groep</t>
-  </si>
-  <si>
-    <t>mavo?</t>
   </si>
 </sst>
 </file>
@@ -937,6 +944,15 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -997,15 +1013,6 @@
       <u val="none"/>
       <sz val="12"/>
       <color rgb="FFF2F2F2"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
   </fonts>
@@ -1103,20 +1110,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFDEEAF6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDEEAF6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDEEAF6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDEEAF6"/>
-      </bottom>
-    </border>
-    <border>
       <right style="hair">
         <color rgb="FFF2F2F2"/>
       </right>
@@ -1143,11 +1136,25 @@
         <color rgb="FFA9CD90"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEEAF6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEEAF6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEEAF6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEEAF6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="59">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1217,36 +1224,74 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="11" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="12" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="12" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
@@ -1254,43 +1299,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="7" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
@@ -1298,15 +1347,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="8" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font/>
       <fill>
@@ -1401,6 +1458,21 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
       <alignment/>
@@ -1860,8 +1932,8 @@
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="175" zoomScaleNormal="175" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="160" zoomScaleNormal="160" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,135 +1944,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="74.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" customHeight="1" ht="106.5">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" customHeight="1" ht="161.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" customHeight="1" ht="107.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="23" customFormat="1">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="29" customFormat="1">
+      <c r="A11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" customHeight="1" ht="51.75">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:3" customHeight="1" ht="25.5">
+      <c r="A14" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="24"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="24"/>
+      <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="24"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="24"/>
+      <c r="B20" s="30"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="24"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="24"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="24"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="24"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="24"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="24"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="24"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="24"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="24"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="24"/>
+      <c r="B30" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mV7BNsQoFesF/gHTqLwFID77XCVLa9wfBt+/qI6NBt8ZJQTq+zXXlgMeU+Yap4FYo3SfLn1U8mRQOMZH2GCMGQ==" saltValue="vl1+j0HvtxTC7FXpJM93Ug==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TeAQE6RCNzwVHdzX9FyhNliu8+va5Lkdju/NK44UuWH5aKez5DYz9/6S7j5dD7ZLPVVot43sIduw8tqQQ+uX7w==" saltValue="Ebq71HmY02pxWYdAxAbGAA==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2020,11 +2097,11 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2034,7 +2111,7 @@
     <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
     <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
     <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -2046,448 +2123,853 @@
     <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
     <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
     <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
+    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
+    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
+    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
+    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
+    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
+    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
+    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
+    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
+    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
+    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
+    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
+    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
+    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
+    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:32">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="F1" s="39"/>
+      <c r="G1" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+    </row>
+    <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="32" t="str">
+        <v>42</v>
+      </c>
+      <c r="F2" s="40">
+        <f>SUM(AF6:AF35)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige M3 (cohort 2020 - 2021)</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-    </row>
-    <row r="3" spans="1:17">
+        <v>Dit is het programma van de huidige M2 (cohort 2021 - 2022)</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="F3" s="39"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="34" t="str">
+      <c r="F4" s="39"/>
+      <c r="G4" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+        <v>KCKV leerlaag M3 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+    </row>
+    <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="L5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="N5" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="O5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="30"/>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="P5" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="7" t="str">
+        <f>G5</f>
+        <v>periode</v>
+      </c>
+      <c r="S5" s="7" t="str">
+        <f>I5</f>
+        <v>weging VD</v>
+      </c>
+      <c r="T5" s="7" t="str">
+        <f>J5</f>
+        <v>soort toets</v>
+      </c>
+      <c r="U5" s="7" t="str">
+        <f>J5</f>
+        <v>soort toets</v>
+      </c>
+      <c r="V5" s="7" t="str">
+        <f>L5</f>
+        <v>duur (min)</v>
+      </c>
+      <c r="W5" s="7" t="str">
+        <f>M5</f>
+        <v>SE?</v>
+      </c>
+      <c r="X5" s="7" t="str">
+        <f>M5</f>
+        <v>SE?</v>
+      </c>
+      <c r="Y5" s="7" t="str">
+        <f>N5</f>
+        <v>weging SE</v>
+      </c>
+      <c r="Z5" s="7" t="str">
+        <f>N5</f>
+        <v>weging SE</v>
+      </c>
+      <c r="AA5" s="7" t="str">
+        <f>O5</f>
+        <v>herkans-baar?</v>
+      </c>
+      <c r="AB5" s="7" t="str">
+        <f>O5</f>
+        <v>herkans-baar?</v>
+      </c>
+      <c r="AC5" s="7" t="str">
+        <f>O5</f>
+        <v>herkans-baar?</v>
+      </c>
+      <c r="AD5" s="7" t="str">
+        <f>P5</f>
+        <v>verplichte SE-domeinen</v>
+      </c>
+      <c r="AE5" s="7" t="str">
+        <f>P5</f>
+        <v>verplichte SE-domeinen</v>
+      </c>
+      <c r="AF5" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2">
-        <v>550</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="36">
-        <v>1</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="36">
-        <v>1</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="43">
-        <v>1</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="30"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="F6" s="39"/>
+      <c r="G6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="7">
+        <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f>IF(AND(ISBLANK($I18),AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2),AND(ISBLANK($N18))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f>IF(ISBLANK($J6),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f>IF(AND($J6=instellingen!$H$2,AND($H6&lt;&gt;"",$G6&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f>IF(OR(AND($L6&lt;&gt;"",OR($J6=instellingen!$H$5,$J6=instellingen!$H$6,,$J6=instellingen!$H$7)),AND(ISBLANK($L6),OR($J6=instellingen!$H$3,$J6=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f>IF(ISBLANK($M6),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f>IF(AND($M6=instellingen!$I$2,AND($H6&lt;&gt;"",$G6&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>IF(AND($N6&lt;&gt;"",OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <f>IF(AND(ISBLANK($N6),$M6=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <f>IF(ISBLANK($O6),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <f>IF(AND($P6&lt;&gt;"",OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <f>IF(AND(ISBLANK($P6),$M6=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <f>SUM(R6:AE6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>551</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="36">
-        <v>2</v>
-      </c>
-      <c r="H7" s="40" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="7">
+        <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f>IF(AND(ISBLANK($I19),AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2),AND(ISBLANK($N19))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f>IF(ISBLANK($J7),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <f>IF(AND($J7=instellingen!$H$2,AND($H7&lt;&gt;"",$G7&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f>IF(OR(AND($L7&lt;&gt;"",OR($J7=instellingen!$H$5,$J7=instellingen!$H$6,,$J7=instellingen!$H$7)),AND(ISBLANK($L7),OR($J7=instellingen!$H$3,$J7=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f>IF(ISBLANK($M7),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f>IF(AND($M7=instellingen!$I$2,AND($H7&lt;&gt;"",$G7&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <f>IF(AND($N7&lt;&gt;"",OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <f>IF(AND(ISBLANK($N7),$M7=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <f>IF(ISBLANK($O7),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <f>IF(AND($P7&lt;&gt;"",OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <f>IF(AND(ISBLANK($P7),$M7=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f>SUM(R7:AE7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="36">
-        <v>1</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="43">
-        <v>1</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="45" t="s">
+      <c r="B8" s="2">
+        <v>262</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="7">
+        <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <f>IF(AND(ISBLANK($I20),AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2),AND(ISBLANK($N20))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <f>IF(ISBLANK($J8),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <f>IF(AND($J8=instellingen!$H$2,AND($H8&lt;&gt;"",$G8&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <f>IF(OR(AND($L8&lt;&gt;"",OR($J8=instellingen!$H$5,$J8=instellingen!$H$6,,$J8=instellingen!$H$7)),AND(ISBLANK($L8),OR($J8=instellingen!$H$3,$J8=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <f>IF(ISBLANK($M8),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <f>IF(AND($M8=instellingen!$I$2,AND($H8&lt;&gt;"",$G8&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <f>IF(AND($N8&lt;&gt;"",OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <f>IF(AND(ISBLANK($N8),$M8=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <f>IF(ISBLANK($O8),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <f>IF(AND($P8&lt;&gt;"",OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <f>IF(AND(ISBLANK($P8),$M8=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <f>SUM(R8:AE8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="Q7" s="30"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2">
-        <v>169</v>
-      </c>
-      <c r="D8" s="2">
-        <v>552</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="36">
-        <v>2</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="36">
-        <v>1</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="43">
-        <v>1</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="30"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2">
-        <v>553</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="36">
-        <v>3</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="36">
-        <v>1</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="43">
-        <v>1</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="30"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="F9" s="39"/>
+      <c r="G9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="7">
+        <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <f>IF(AND(ISBLANK($I21),AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2),AND(ISBLANK($N21))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <f>IF(ISBLANK($J9),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <f>IF(AND($J9=instellingen!$H$2,AND($H9&lt;&gt;"",$G9&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <f>IF(OR(AND($L9&lt;&gt;"",OR($J9=instellingen!$H$5,$J9=instellingen!$H$6,,$J9=instellingen!$H$7)),AND(ISBLANK($L9),OR($J9=instellingen!$H$3,$J9=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <f>IF(ISBLANK($M9),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <f>IF(AND($M9=instellingen!$I$2,AND($H9&lt;&gt;"",$G9&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <f>IF(AND($N9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <f>IF(AND(ISBLANK($N9),$M9=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <f>IF(ISBLANK($O9),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <f>IF(AND($P9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <f>IF(AND(ISBLANK($P9),$M9=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <f>SUM(R9:AE9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44342.630046296</v>
-      </c>
-      <c r="D10" s="2">
-        <v>554</v>
-      </c>
+        <v>44345.648541667</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="36">
-        <v>3</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="36">
-        <v>1</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="43">
-        <v>1</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="30"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="F10" s="39"/>
+      <c r="G10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="7">
+        <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <f>IF(AND(ISBLANK($I22),AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2),AND(ISBLANK($N22))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <f>IF(ISBLANK($J10),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <f>IF(AND($J10=instellingen!$H$2,AND($H10&lt;&gt;"",$G10&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <f>IF(OR(AND($L10&lt;&gt;"",OR($J10=instellingen!$H$5,$J10=instellingen!$H$6,,$J10=instellingen!$H$7)),AND(ISBLANK($L10),OR($J10=instellingen!$H$3,$J10=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <f>IF(ISBLANK($M10),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <f>IF(AND($M10=instellingen!$I$2,AND($H10&lt;&gt;"",$G10&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <f>IF(AND($N10&lt;&gt;"",OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <f>IF(AND(ISBLANK($N10),$M10=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <f>IF(ISBLANK($O10),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <f>IF(AND($P10&lt;&gt;"",OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <f>IF(AND(ISBLANK($P10),$M10=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <f>SUM(R10:AE10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>555</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="36">
-        <v>4</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="36">
-        <v>2</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="43">
-        <v>2</v>
-      </c>
-      <c r="O11" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="30"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="F11" s="39"/>
+      <c r="G11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="7">
+        <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <f>IF(AND(ISBLANK($I23),AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2),AND(ISBLANK($N23))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <f>IF(ISBLANK($J11),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <f>IF(AND($J11=instellingen!$H$2,AND($H11&lt;&gt;"",$G11&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <f>IF(OR(AND($L11&lt;&gt;"",OR($J11=instellingen!$H$5,$J11=instellingen!$H$6,,$J11=instellingen!$H$7)),AND(ISBLANK($L11),OR($J11=instellingen!$H$3,$J11=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <f>IF(ISBLANK($M11),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="7">
+        <f>IF(AND($M11=instellingen!$I$2,AND($H11&lt;&gt;"",$G11&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <f>IF(AND($N11&lt;&gt;"",OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
+        <f>IF(AND(ISBLANK($N11),$M11=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <f>IF(ISBLANK($O11),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
+        <f>IF(AND($P11&lt;&gt;"",OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <f>IF(AND(ISBLANK($P11),$M11=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <f>SUM(R11:AE11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="F12" s="39"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
-        <v>421</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="37" t="str">
+        <v>640</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
+        <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M3 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
-        <v>3</v>
-      </c>
-      <c r="F14" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="39"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -2495,560 +2977,1418 @@
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="F15" s="39"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="34" t="str">
+      <c r="F16" s="39"/>
+      <c r="G16" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+        <v>KCKV leerlaag M4 (schooljaar 2022 - 2023)</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+    </row>
+    <row r="17" spans="1:32" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="35" t="s">
+      <c r="H17" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="I17" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="J17" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="K17" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="L17" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="M17" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="N17" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="O17" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="P17" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="30"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="F18" s="39"/>
+      <c r="G18" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="53"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="7">
+        <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <f>IF(AND(ISBLANK($I30),AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2),AND(ISBLANK($N30))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <f>IF(ISBLANK($J18),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f>IF(AND($J18=instellingen!$H$2,AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <f>IF(OR(AND($L18&lt;&gt;"",OR($J18=instellingen!$H$5,$J18=instellingen!$H$6,,$J18=instellingen!$H$7)),AND(ISBLANK($L18),OR($J18=instellingen!$H$3,$J18=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <f>IF(ISBLANK($M18),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <f>IF(AND($M18=instellingen!$I$2,AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <f>IF(AND($N18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <f>IF(AND(ISBLANK($N18),$M18=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <f>IF(ISBLANK($O18),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <f>IF(AND($P18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
+        <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
+        <f>SUM(R18:AE18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="30"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="F19" s="39"/>
+      <c r="G19" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="53"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="7">
+        <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <f>IF(AND(ISBLANK($I31),AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2),AND(ISBLANK($N31))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <f>IF(ISBLANK($J19),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <f>IF(AND($J19=instellingen!$H$2,AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <f>IF(OR(AND($L19&lt;&gt;"",OR($J19=instellingen!$H$5,$J19=instellingen!$H$6,,$J19=instellingen!$H$7)),AND(ISBLANK($L19),OR($J19=instellingen!$H$3,$J19=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <f>IF(ISBLANK($M19),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <f>IF(AND($M19=instellingen!$I$2,AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
+        <f>IF(AND($N19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <f>IF(AND(ISBLANK($N19),$M19=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <f>IF(ISBLANK($O19),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
+        <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <f>IF(AND($P19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <f>SUM(R19:AE19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="30"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="F20" s="39"/>
+      <c r="G20" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="53"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="7">
+        <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <f>IF(AND(ISBLANK($I32),AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2),AND(ISBLANK($N32))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <f>IF(ISBLANK($J20),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <f>IF(AND($J20=instellingen!$H$2,AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <f>IF(OR(AND($L20&lt;&gt;"",OR($J20=instellingen!$H$5,$J20=instellingen!$H$6,,$J20=instellingen!$H$7)),AND(ISBLANK($L20),OR($J20=instellingen!$H$3,$J20=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <f>IF(ISBLANK($M20),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <f>IF(AND($M20=instellingen!$I$2,AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
+        <f>IF(AND($N20&lt;&gt;"",OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7">
+        <f>IF(AND(ISBLANK($N20),$M20=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
+        <f>IF(ISBLANK($O20),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="7">
+        <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="7">
+        <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <f>IF(AND($P20&lt;&gt;"",OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7">
+        <f>IF(AND(ISBLANK($P20),$M20=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <f>SUM(R20:AE20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="F21" s="39"/>
+      <c r="G21" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="53"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="7">
+        <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <f>IF(AND(ISBLANK($I33),AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2),AND(ISBLANK($N33))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <f>IF(ISBLANK($J21),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <f>IF(AND($J21=instellingen!$H$2,AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
+        <f>IF(OR(AND($L21&lt;&gt;"",OR($J21=instellingen!$H$5,$J21=instellingen!$H$6,,$J21=instellingen!$H$7)),AND(ISBLANK($L21),OR($J21=instellingen!$H$3,$J21=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
+        <f>IF(ISBLANK($M21),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="7">
+        <f>IF(AND($M21=instellingen!$I$2,AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7">
+        <f>IF(AND($N21&lt;&gt;"",OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7">
+        <f>IF(AND(ISBLANK($N21),$M21=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
+        <f>IF(ISBLANK($O21),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="7">
+        <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="7">
+        <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
+        <f>IF(AND($P21&lt;&gt;"",OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="7">
+        <f>IF(AND(ISBLANK($P21),$M21=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <f>SUM(R21:AE21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="30"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="F22" s="39"/>
+      <c r="G22" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="51"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="53"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="7">
+        <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <f>IF(AND(ISBLANK($I34),AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2),AND(ISBLANK($N34))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <f>IF(ISBLANK($J22),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="7">
+        <f>IF(AND($J22=instellingen!$H$2,AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="7">
+        <f>IF(OR(AND($L22&lt;&gt;"",OR($J22=instellingen!$H$5,$J22=instellingen!$H$6,,$J22=instellingen!$H$7)),AND(ISBLANK($L22),OR($J22=instellingen!$H$3,$J22=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="7">
+        <f>IF(ISBLANK($M22),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="7">
+        <f>IF(AND($M22=instellingen!$I$2,AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7">
+        <f>IF(AND($N22&lt;&gt;"",OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7">
+        <f>IF(AND(ISBLANK($N22),$M22=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <f>IF(ISBLANK($O22),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="7">
+        <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7">
+        <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7">
+        <f>IF(AND($P22&lt;&gt;"",OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="7">
+        <f>IF(AND(ISBLANK($P22),$M22=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
+        <f>SUM(R22:AE22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="30"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="F24" s="30"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="F23" s="39"/>
+      <c r="G23" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="53"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="7">
+        <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="7">
+        <f>IF(AND(ISBLANK($I35),AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2),AND(ISBLANK($N35))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <f>IF(ISBLANK($J23),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="7">
+        <f>IF(AND($J23=instellingen!$H$2,AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="7">
+        <f>IF(OR(AND($L23&lt;&gt;"",OR($J23=instellingen!$H$5,$J23=instellingen!$H$6,,$J23=instellingen!$H$7)),AND(ISBLANK($L23),OR($J23=instellingen!$H$3,$J23=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="7">
+        <f>IF(ISBLANK($M23),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="7">
+        <f>IF(AND($M23=instellingen!$I$2,AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="7">
+        <f>IF(AND($N23&lt;&gt;"",OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7">
+        <f>IF(AND(ISBLANK($N23),$M23=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7">
+        <f>IF(ISBLANK($O23),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="7">
+        <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="7">
+        <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7">
+        <f>IF(AND($P23&lt;&gt;"",OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="7">
+        <f>IF(AND(ISBLANK($P23),$M23=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <f>SUM(R23:AE23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="F24" s="39"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="C25" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2">
-        <v>422</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="37" t="str">
+        <v>641</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="F26" s="30"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="F27" s="30"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75" hidden="true">
+        <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M4 (schooljaar 2022 - 2023)</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+    </row>
+    <row r="26" spans="1:32" customHeight="1" ht="72">
+      <c r="F26" s="39"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="F27" s="39"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+    </row>
+    <row r="28" spans="1:32" customHeight="1" ht="30.75" hidden="true">
       <c r="C28" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="34" t="str">
+      <c r="F28" s="39"/>
+      <c r="G28" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
-      </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5" hidden="true">
+        <v>KCKV leerlaag M5 (schooljaar 2023 - 2022)</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+    </row>
+    <row r="29" spans="1:32" customHeight="1" ht="34.5" hidden="true">
       <c r="D29" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="35" t="s">
+      <c r="H29" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="35" t="s">
+      <c r="I29" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="J29" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="K29" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="35" t="s">
+      <c r="L29" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N29" s="35" t="s">
+      <c r="M29" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O29" s="35" t="s">
+      <c r="N29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="P29" s="39" t="s">
+      <c r="O29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="30"/>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="P29" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+    </row>
+    <row r="30" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="30"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F30" s="39"/>
+      <c r="G30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="53"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="7">
+        <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <f>IF(AND(ISBLANK($I42),AND($H42&lt;&gt;"",$G42&lt;&gt;instellingen!$G$2),AND(ISBLANK($N42))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <f>IF(ISBLANK($J30),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="7">
+        <f>IF(AND($J30=instellingen!$H$2,AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <f>IF(OR(AND($L30&lt;&gt;"",OR($J30=instellingen!$H$5,$J30=instellingen!$H$6,,$J30=instellingen!$H$7)),AND(ISBLANK($L30),OR($J30=instellingen!$H$3,$J30=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="7">
+        <f>IF(ISBLANK($M30),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <f>IF(AND($M30=instellingen!$I$2,AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7">
+        <f>IF(AND($N30&lt;&gt;"",OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7">
+        <f>IF(AND(ISBLANK($N30),$M30=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7">
+        <f>IF(ISBLANK($O30),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="7">
+        <f>IF(AND(OR($O30=instellingen!$I$3,$O30=instellingen!$I$4),OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <f>IF(AND($O30=instellingen!$I$2,$M30=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="7">
+        <f>IF(AND($P30&lt;&gt;"",OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="7">
+        <f>IF(AND(ISBLANK($P30),$M30=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <f>SUM(R30:AE30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="30"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F31" s="39"/>
+      <c r="G31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="51"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="53"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="7">
+        <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <f>IF(AND(ISBLANK($I43),AND($H43&lt;&gt;"",$G43&lt;&gt;instellingen!$G$2),AND(ISBLANK($N43))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <f>IF(ISBLANK($J31),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <f>IF(AND($J31=instellingen!$H$2,AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="7">
+        <f>IF(OR(AND($L31&lt;&gt;"",OR($J31=instellingen!$H$5,$J31=instellingen!$H$6,,$J31=instellingen!$H$7)),AND(ISBLANK($L31),OR($J31=instellingen!$H$3,$J31=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <f>IF(ISBLANK($M31),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="7">
+        <f>IF(AND($M31=instellingen!$I$2,AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7">
+        <f>IF(AND($N31&lt;&gt;"",OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7">
+        <f>IF(AND(ISBLANK($N31),$M31=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7">
+        <f>IF(ISBLANK($O31),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="7">
+        <f>IF(AND(OR($O31=instellingen!$I$3,$O31=instellingen!$I$4),OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7">
+        <f>IF(AND($O31=instellingen!$I$2,$M31=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="7">
+        <f>IF(AND($P31&lt;&gt;"",OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7">
+        <f>IF(AND(ISBLANK($P31),$M31=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <f>SUM(R31:AE31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="30"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F32" s="39"/>
+      <c r="G32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="53"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="7">
+        <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="7">
+        <f>IF(AND(ISBLANK($I44),AND($H44&lt;&gt;"",$G44&lt;&gt;instellingen!$G$2),AND(ISBLANK($N44))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <f>IF(ISBLANK($J32),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <f>IF(AND($J32=instellingen!$H$2,AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="7">
+        <f>IF(OR(AND($L32&lt;&gt;"",OR($J32=instellingen!$H$5,$J32=instellingen!$H$6,,$J32=instellingen!$H$7)),AND(ISBLANK($L32),OR($J32=instellingen!$H$3,$J32=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="7">
+        <f>IF(ISBLANK($M32),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <f>IF(AND($M32=instellingen!$I$2,AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="7">
+        <f>IF(AND($N32&lt;&gt;"",OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7">
+        <f>IF(AND(ISBLANK($N32),$M32=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7">
+        <f>IF(ISBLANK($O32),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="7">
+        <f>IF(AND(OR($O32=instellingen!$I$3,$O32=instellingen!$I$4),OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7">
+        <f>IF(AND($O32=instellingen!$I$2,$M32=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7">
+        <f>IF(AND($P32&lt;&gt;"",OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7">
+        <f>IF(AND(ISBLANK($P32),$M32=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <f>SUM(R32:AE32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="30"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F33" s="39"/>
+      <c r="G33" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="51"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="53"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="7">
+        <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <f>IF(AND(ISBLANK($I45),AND($H45&lt;&gt;"",$G45&lt;&gt;instellingen!$G$2),AND(ISBLANK($N45))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <f>IF(ISBLANK($J33),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <f>IF(AND($J33=instellingen!$H$2,AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <f>IF(OR(AND($L33&lt;&gt;"",OR($J33=instellingen!$H$5,$J33=instellingen!$H$6,,$J33=instellingen!$H$7)),AND(ISBLANK($L33),OR($J33=instellingen!$H$3,$J33=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <f>IF(ISBLANK($M33),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <f>IF(AND($M33=instellingen!$I$2,AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <f>IF(AND($N33&lt;&gt;"",OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
+        <f>IF(AND(ISBLANK($N33),$M33=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7">
+        <f>IF(ISBLANK($O33),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="7">
+        <f>IF(AND(OR($O33=instellingen!$I$3,$O33=instellingen!$I$4),OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7">
+        <f>IF(AND($O33=instellingen!$I$2,$M33=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="7">
+        <f>IF(AND($P33&lt;&gt;"",OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="7">
+        <f>IF(AND(ISBLANK($P33),$M33=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <f>SUM(R33:AE33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="30"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F34" s="39"/>
+      <c r="G34" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="53"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="7">
+        <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="7">
+        <f>IF(AND(ISBLANK($I46),AND($H46&lt;&gt;"",$G46&lt;&gt;instellingen!$G$2),AND(ISBLANK($N46))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <f>IF(ISBLANK($J34),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="7">
+        <f>IF(AND($J34=instellingen!$H$2,AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="7">
+        <f>IF(OR(AND($L34&lt;&gt;"",OR($J34=instellingen!$H$5,$J34=instellingen!$H$6,,$J34=instellingen!$H$7)),AND(ISBLANK($L34),OR($J34=instellingen!$H$3,$J34=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="7">
+        <f>IF(ISBLANK($M34),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="7">
+        <f>IF(AND($M34=instellingen!$I$2,AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7">
+        <f>IF(AND($N34&lt;&gt;"",OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7">
+        <f>IF(AND(ISBLANK($N34),$M34=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7">
+        <f>IF(ISBLANK($O34),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="7">
+        <f>IF(AND(OR($O34=instellingen!$I$3,$O34=instellingen!$I$4),OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7">
+        <f>IF(AND($O34=instellingen!$I$2,$M34=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="7">
+        <f>IF(AND($P34&lt;&gt;"",OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="7">
+        <f>IF(AND(ISBLANK($P34),$M34=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <f>SUM(R34:AE34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="30"/>
-    </row>
-    <row r="36" spans="1:17" hidden="true">
-      <c r="F36" s="30"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-    </row>
-    <row r="37" spans="1:17" hidden="true">
+      <c r="F35" s="39"/>
+      <c r="G35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="53"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="7">
+        <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="7">
+        <f>IF(AND(ISBLANK($I47),AND($H47&lt;&gt;"",$G47&lt;&gt;instellingen!$G$2),AND(ISBLANK($N47))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <f>IF(ISBLANK($J35),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <f>IF(AND($J35=instellingen!$H$2,AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="7">
+        <f>IF(OR(AND($L35&lt;&gt;"",OR($J35=instellingen!$H$5,$J35=instellingen!$H$6,,$J35=instellingen!$H$7)),AND(ISBLANK($L35),OR($J35=instellingen!$H$3,$J35=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <f>IF(ISBLANK($M35),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <f>IF(AND($M35=instellingen!$I$2,AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="7">
+        <f>IF(AND($N35&lt;&gt;"",OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7">
+        <f>IF(AND(ISBLANK($N35),$M35=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="7">
+        <f>IF(ISBLANK($O35),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="7">
+        <f>IF(AND(OR($O35=instellingen!$I$3,$O35=instellingen!$I$4),OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="7">
+        <f>IF(AND($O35=instellingen!$I$2,$M35=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="7">
+        <f>IF(AND($P35&lt;&gt;"",OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="7">
+        <f>IF(AND(ISBLANK($P35),$M35=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <f>SUM(R35:AE35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" hidden="true">
+      <c r="F36" s="39"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+    </row>
+    <row r="37" spans="1:32" hidden="true">
       <c r="C37" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="2">
-        <v>668</v>
-      </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="37" t="str">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="30"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M5 (schooljaar 2023 - 2022)</v>
+      </c>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+    </row>
+    <row r="38" spans="1:32" customHeight="1" ht="72" hidden="true">
+      <c r="F38" s="39"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="puRgrYCDnCsuTz2/h2Po69QZMNx3noAt/zHUQ+KS3fUVuWgjxNI1iLFxgXmxzrPLo/RLpcodW5Gh/dGtEsH9hA==" saltValue="ddgoaj2XY5T+0BSM3eqGrA==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3103,8 +4443,16 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="11">
+  <conditionalFormatting sqref="R6:AE35">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
       <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
@@ -3157,7 +4505,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3171,7 +4519,7 @@
     <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
     <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
     <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -3183,933 +4531,2334 @@
     <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
     <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
     <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
+    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
+    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
+    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
+    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
+    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
+    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
+    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
+    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
+    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
+    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
+    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
+    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
+    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
+    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:32">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="F1" s="39"/>
+      <c r="G1" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+    </row>
+    <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="32" t="str">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="40">
+        <f>SUM(AF6:AF35)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-    </row>
-    <row r="3" spans="1:17">
+        <v>Dit is het programma van de huidige M3 (cohort 2020 - 2021)</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="F3" s="39"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="34" t="str">
+      <c r="F4" s="39"/>
+      <c r="G4" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+        <v>KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+    </row>
+    <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B5" s="2">
+        <v>28</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="L5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="N5" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="O5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="30"/>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="P5" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="7" t="str">
+        <f>G5</f>
+        <v>periode</v>
+      </c>
+      <c r="S5" s="7" t="str">
+        <f>I5</f>
+        <v>weging VD</v>
+      </c>
+      <c r="T5" s="7" t="str">
+        <f>J5</f>
+        <v>soort toets</v>
+      </c>
+      <c r="U5" s="7" t="str">
+        <f>J5</f>
+        <v>soort toets</v>
+      </c>
+      <c r="V5" s="7" t="str">
+        <f>L5</f>
+        <v>duur (min)</v>
+      </c>
+      <c r="W5" s="7" t="str">
+        <f>M5</f>
+        <v>SE?</v>
+      </c>
+      <c r="X5" s="7" t="str">
+        <f>M5</f>
+        <v>SE?</v>
+      </c>
+      <c r="Y5" s="7" t="str">
+        <f>N5</f>
+        <v>weging SE</v>
+      </c>
+      <c r="Z5" s="7" t="str">
+        <f>N5</f>
+        <v>weging SE</v>
+      </c>
+      <c r="AA5" s="7" t="str">
+        <f>O5</f>
+        <v>herkans-baar?</v>
+      </c>
+      <c r="AB5" s="7" t="str">
+        <f>O5</f>
+        <v>herkans-baar?</v>
+      </c>
+      <c r="AC5" s="7" t="str">
+        <f>O5</f>
+        <v>herkans-baar?</v>
+      </c>
+      <c r="AD5" s="7" t="str">
+        <f>P5</f>
+        <v>verplichte SE-domeinen</v>
+      </c>
+      <c r="AE5" s="7" t="str">
+        <f>P5</f>
+        <v>verplichte SE-domeinen</v>
+      </c>
+      <c r="AF5" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2">
+        <v>550</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="30"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="F6" s="39"/>
+      <c r="G6" s="46">
+        <v>1</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="46">
+        <v>1</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="54">
+        <v>1</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="7">
+        <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f>IF(AND(ISBLANK($I18),AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2),AND(ISBLANK($N18))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f>IF(ISBLANK($J6),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f>IF(AND($J6=instellingen!$H$2,AND($H6&lt;&gt;"",$G6&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f>IF(OR(AND($L6&lt;&gt;"",OR($J6=instellingen!$H$5,$J6=instellingen!$H$6,,$J6=instellingen!$H$7)),AND(ISBLANK($L6),OR($J6=instellingen!$H$3,$J6=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f>IF(ISBLANK($M6),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f>IF(AND($M6=instellingen!$I$2,AND($H6&lt;&gt;"",$G6&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>IF(AND($N6&lt;&gt;"",OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <f>IF(AND(ISBLANK($N6),$M6=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <f>IF(ISBLANK($O6),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <f>IF(AND($P6&lt;&gt;"",OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <f>IF(AND(ISBLANK($P6),$M6=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <f>SUM(R6:AE6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>551</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="30"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="F7" s="39"/>
+      <c r="G7" s="46">
+        <v>2</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="46">
+        <v>1</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="54">
+        <v>1</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="7">
+        <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f>IF(AND(ISBLANK($I19),AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2),AND(ISBLANK($N19))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f>IF(ISBLANK($J7),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <f>IF(AND($J7=instellingen!$H$2,AND($H7&lt;&gt;"",$G7&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f>IF(OR(AND($L7&lt;&gt;"",OR($J7=instellingen!$H$5,$J7=instellingen!$H$6,,$J7=instellingen!$H$7)),AND(ISBLANK($L7),OR($J7=instellingen!$H$3,$J7=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f>IF(ISBLANK($M7),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f>IF(AND($M7=instellingen!$I$2,AND($H7&lt;&gt;"",$G7&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <f>IF(AND($N7&lt;&gt;"",OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <f>IF(AND(ISBLANK($N7),$M7=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <f>IF(ISBLANK($O7),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <f>IF(AND($P7&lt;&gt;"",OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <f>IF(AND(ISBLANK($P7),$M7=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f>SUM(R7:AE7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="B8" s="2">
+        <v>169</v>
+      </c>
+      <c r="D8" s="2">
+        <v>552</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="30"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="F8" s="39"/>
+      <c r="G8" s="46">
+        <v>2</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="46">
+        <v>1</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="54">
+        <v>1</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="7">
+        <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <f>IF(AND(ISBLANK($I20),AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2),AND(ISBLANK($N20))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <f>IF(ISBLANK($J8),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <f>IF(AND($J8=instellingen!$H$2,AND($H8&lt;&gt;"",$G8&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <f>IF(OR(AND($L8&lt;&gt;"",OR($J8=instellingen!$H$5,$J8=instellingen!$H$6,,$J8=instellingen!$H$7)),AND(ISBLANK($L8),OR($J8=instellingen!$H$3,$J8=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <f>IF(ISBLANK($M8),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <f>IF(AND($M8=instellingen!$I$2,AND($H8&lt;&gt;"",$G8&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <f>IF(AND($N8&lt;&gt;"",OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <f>IF(AND(ISBLANK($N8),$M8=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <f>IF(ISBLANK($O8),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <f>IF(AND($P8&lt;&gt;"",OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <f>IF(AND(ISBLANK($P8),$M8=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <f>SUM(R8:AE8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2021</v>
+      </c>
+      <c r="D9" s="2">
+        <v>553</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="46">
+        <v>3</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="46">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="30"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="J9" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="54">
+        <v>1</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="7">
+        <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <f>IF(AND(ISBLANK($I21),AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2),AND(ISBLANK($N21))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <f>IF(ISBLANK($J9),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <f>IF(AND($J9=instellingen!$H$2,AND($H9&lt;&gt;"",$G9&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <f>IF(OR(AND($L9&lt;&gt;"",OR($J9=instellingen!$H$5,$J9=instellingen!$H$6,,$J9=instellingen!$H$7)),AND(ISBLANK($L9),OR($J9=instellingen!$H$3,$J9=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <f>IF(ISBLANK($M9),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <f>IF(AND($M9=instellingen!$I$2,AND($H9&lt;&gt;"",$G9&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <f>IF(AND($N9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <f>IF(AND(ISBLANK($N9),$M9=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <f>IF(ISBLANK($O9),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <f>IF(AND($P9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <f>IF(AND(ISBLANK($P9),$M9=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <f>SUM(R9:AE9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44342.630046296</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44345.648541667</v>
+      </c>
+      <c r="D10" s="2">
+        <v>554</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="30"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="F10" s="39"/>
+      <c r="G10" s="46">
+        <v>3</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="46">
+        <v>1</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="54">
+        <v>1</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="7">
+        <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <f>IF(AND(ISBLANK($I22),AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2),AND(ISBLANK($N22))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <f>IF(ISBLANK($J10),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <f>IF(AND($J10=instellingen!$H$2,AND($H10&lt;&gt;"",$G10&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <f>IF(OR(AND($L10&lt;&gt;"",OR($J10=instellingen!$H$5,$J10=instellingen!$H$6,,$J10=instellingen!$H$7)),AND(ISBLANK($L10),OR($J10=instellingen!$H$3,$J10=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <f>IF(ISBLANK($M10),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <f>IF(AND($M10=instellingen!$I$2,AND($H10&lt;&gt;"",$G10&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <f>IF(AND($N10&lt;&gt;"",OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <f>IF(AND(ISBLANK($N10),$M10=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <f>IF(ISBLANK($O10),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <f>IF(AND($P10&lt;&gt;"",OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <f>IF(AND(ISBLANK($P10),$M10=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <f>SUM(R10:AE10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>555</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="30"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="F11" s="39"/>
+      <c r="G11" s="46">
+        <v>4</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="46">
+        <v>2</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="54">
+        <v>2</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="7">
+        <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <f>IF(AND(ISBLANK($I23),AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2),AND(ISBLANK($N23))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <f>IF(ISBLANK($J11),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <f>IF(AND($J11=instellingen!$H$2,AND($H11&lt;&gt;"",$G11&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <f>IF(OR(AND($L11&lt;&gt;"",OR($J11=instellingen!$H$5,$J11=instellingen!$H$6,,$J11=instellingen!$H$7)),AND(ISBLANK($L11),OR($J11=instellingen!$H$3,$J11=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <f>IF(ISBLANK($M11),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="7">
+        <f>IF(AND($M11=instellingen!$I$2,AND($H11&lt;&gt;"",$G11&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <f>IF(AND($N11&lt;&gt;"",OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
+        <f>IF(AND(ISBLANK($N11),$M11=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <f>IF(ISBLANK($O11),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
+        <f>IF(AND($P11&lt;&gt;"",OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <f>IF(AND(ISBLANK($P11),$M11=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <f>SUM(R11:AE11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="F12" s="39"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="37" t="str">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2">
+        <v>421</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
+        <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
-        <v>2024</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-    </row>
-    <row r="15" spans="1:17">
+        <v>3</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+        <v>3</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="34" t="str">
+      <c r="F16" s="39"/>
+      <c r="G16" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
-      </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+        <v>KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+    </row>
+    <row r="17" spans="1:32" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="35" t="s">
+      <c r="H17" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="I17" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="J17" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="K17" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="L17" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="M17" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="N17" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="O17" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="P17" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="30"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="F18" s="39"/>
+      <c r="G18" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="53"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="7">
+        <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <f>IF(AND(ISBLANK($I30),AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2),AND(ISBLANK($N30))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <f>IF(ISBLANK($J18),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f>IF(AND($J18=instellingen!$H$2,AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <f>IF(OR(AND($L18&lt;&gt;"",OR($J18=instellingen!$H$5,$J18=instellingen!$H$6,,$J18=instellingen!$H$7)),AND(ISBLANK($L18),OR($J18=instellingen!$H$3,$J18=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <f>IF(ISBLANK($M18),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <f>IF(AND($M18=instellingen!$I$2,AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <f>IF(AND($N18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <f>IF(AND(ISBLANK($N18),$M18=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <f>IF(ISBLANK($O18),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <f>IF(AND($P18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
+        <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
+        <f>SUM(R18:AE18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="30"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="F19" s="39"/>
+      <c r="G19" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="53"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="7">
+        <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <f>IF(AND(ISBLANK($I31),AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2),AND(ISBLANK($N31))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <f>IF(ISBLANK($J19),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <f>IF(AND($J19=instellingen!$H$2,AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <f>IF(OR(AND($L19&lt;&gt;"",OR($J19=instellingen!$H$5,$J19=instellingen!$H$6,,$J19=instellingen!$H$7)),AND(ISBLANK($L19),OR($J19=instellingen!$H$3,$J19=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <f>IF(ISBLANK($M19),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <f>IF(AND($M19=instellingen!$I$2,AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
+        <f>IF(AND($N19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <f>IF(AND(ISBLANK($N19),$M19=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <f>IF(ISBLANK($O19),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
+        <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <f>IF(AND($P19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <f>SUM(R19:AE19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="30"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="F20" s="39"/>
+      <c r="G20" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="53"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="7">
+        <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <f>IF(AND(ISBLANK($I32),AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2),AND(ISBLANK($N32))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <f>IF(ISBLANK($J20),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <f>IF(AND($J20=instellingen!$H$2,AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <f>IF(OR(AND($L20&lt;&gt;"",OR($J20=instellingen!$H$5,$J20=instellingen!$H$6,,$J20=instellingen!$H$7)),AND(ISBLANK($L20),OR($J20=instellingen!$H$3,$J20=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <f>IF(ISBLANK($M20),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <f>IF(AND($M20=instellingen!$I$2,AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7">
+        <f>IF(AND($N20&lt;&gt;"",OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7">
+        <f>IF(AND(ISBLANK($N20),$M20=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
+        <f>IF(ISBLANK($O20),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="7">
+        <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="7">
+        <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <f>IF(AND($P20&lt;&gt;"",OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7">
+        <f>IF(AND(ISBLANK($P20),$M20=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <f>SUM(R20:AE20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="F21" s="39"/>
+      <c r="G21" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="53"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="7">
+        <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <f>IF(AND(ISBLANK($I33),AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2),AND(ISBLANK($N33))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <f>IF(ISBLANK($J21),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <f>IF(AND($J21=instellingen!$H$2,AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
+        <f>IF(OR(AND($L21&lt;&gt;"",OR($J21=instellingen!$H$5,$J21=instellingen!$H$6,,$J21=instellingen!$H$7)),AND(ISBLANK($L21),OR($J21=instellingen!$H$3,$J21=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
+        <f>IF(ISBLANK($M21),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="7">
+        <f>IF(AND($M21=instellingen!$I$2,AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7">
+        <f>IF(AND($N21&lt;&gt;"",OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7">
+        <f>IF(AND(ISBLANK($N21),$M21=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
+        <f>IF(ISBLANK($O21),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="7">
+        <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="7">
+        <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
+        <f>IF(AND($P21&lt;&gt;"",OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="7">
+        <f>IF(AND(ISBLANK($P21),$M21=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <f>SUM(R21:AE21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="30"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="F22" s="39"/>
+      <c r="G22" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="51"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="53"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="7">
+        <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <f>IF(AND(ISBLANK($I34),AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2),AND(ISBLANK($N34))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <f>IF(ISBLANK($J22),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="7">
+        <f>IF(AND($J22=instellingen!$H$2,AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="7">
+        <f>IF(OR(AND($L22&lt;&gt;"",OR($J22=instellingen!$H$5,$J22=instellingen!$H$6,,$J22=instellingen!$H$7)),AND(ISBLANK($L22),OR($J22=instellingen!$H$3,$J22=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="7">
+        <f>IF(ISBLANK($M22),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="7">
+        <f>IF(AND($M22=instellingen!$I$2,AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7">
+        <f>IF(AND($N22&lt;&gt;"",OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7">
+        <f>IF(AND(ISBLANK($N22),$M22=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7">
+        <f>IF(ISBLANK($O22),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="7">
+        <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7">
+        <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7">
+        <f>IF(AND($P22&lt;&gt;"",OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="7">
+        <f>IF(AND(ISBLANK($P22),$M22=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
+        <f>SUM(R22:AE22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="30"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="F24" s="30"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="F23" s="39"/>
+      <c r="G23" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="53"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="7">
+        <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="7">
+        <f>IF(AND(ISBLANK($I35),AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2),AND(ISBLANK($N35))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <f>IF(ISBLANK($J23),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="7">
+        <f>IF(AND($J23=instellingen!$H$2,AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="7">
+        <f>IF(OR(AND($L23&lt;&gt;"",OR($J23=instellingen!$H$5,$J23=instellingen!$H$6,,$J23=instellingen!$H$7)),AND(ISBLANK($L23),OR($J23=instellingen!$H$3,$J23=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="7">
+        <f>IF(ISBLANK($M23),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="7">
+        <f>IF(AND($M23=instellingen!$I$2,AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="7">
+        <f>IF(AND($N23&lt;&gt;"",OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7">
+        <f>IF(AND(ISBLANK($N23),$M23=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7">
+        <f>IF(ISBLANK($O23),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="7">
+        <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="7">
+        <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7">
+        <f>IF(AND($P23&lt;&gt;"",OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="7">
+        <f>IF(AND(ISBLANK($P23),$M23=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <f>SUM(R23:AE23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="F24" s="39"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="C25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="37" t="str">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2">
+        <v>422</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="F26" s="30"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="F27" s="30"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75" hidden="true">
+        <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+    </row>
+    <row r="26" spans="1:32" customHeight="1" ht="72">
+      <c r="F26" s="39"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="F27" s="39"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+    </row>
+    <row r="28" spans="1:32" customHeight="1" ht="30.75" hidden="true">
       <c r="C28" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="34" t="str">
+      <c r="F28" s="39"/>
+      <c r="G28" s="44" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
-      </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5" hidden="true">
+        <v>KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+    </row>
+    <row r="29" spans="1:32" customHeight="1" ht="34.5" hidden="true">
       <c r="D29" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="35" t="s">
+      <c r="H29" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="35" t="s">
+      <c r="I29" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="J29" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="K29" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="35" t="s">
+      <c r="L29" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N29" s="35" t="s">
+      <c r="M29" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O29" s="35" t="s">
+      <c r="N29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="P29" s="39" t="s">
+      <c r="O29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="30"/>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="P29" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+    </row>
+    <row r="30" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="30"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F30" s="39"/>
+      <c r="G30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="53"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="7">
+        <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <f>IF(AND(ISBLANK($I42),AND($H42&lt;&gt;"",$G42&lt;&gt;instellingen!$G$2),AND(ISBLANK($N42))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <f>IF(ISBLANK($J30),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="7">
+        <f>IF(AND($J30=instellingen!$H$2,AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <f>IF(OR(AND($L30&lt;&gt;"",OR($J30=instellingen!$H$5,$J30=instellingen!$H$6,,$J30=instellingen!$H$7)),AND(ISBLANK($L30),OR($J30=instellingen!$H$3,$J30=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="7">
+        <f>IF(ISBLANK($M30),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <f>IF(AND($M30=instellingen!$I$2,AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7">
+        <f>IF(AND($N30&lt;&gt;"",OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7">
+        <f>IF(AND(ISBLANK($N30),$M30=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7">
+        <f>IF(ISBLANK($O30),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="7">
+        <f>IF(AND(OR($O30=instellingen!$I$3,$O30=instellingen!$I$4),OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <f>IF(AND($O30=instellingen!$I$2,$M30=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="7">
+        <f>IF(AND($P30&lt;&gt;"",OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="7">
+        <f>IF(AND(ISBLANK($P30),$M30=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <f>SUM(R30:AE30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="30"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F31" s="39"/>
+      <c r="G31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="51"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="53"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="7">
+        <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <f>IF(AND(ISBLANK($I43),AND($H43&lt;&gt;"",$G43&lt;&gt;instellingen!$G$2),AND(ISBLANK($N43))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <f>IF(ISBLANK($J31),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <f>IF(AND($J31=instellingen!$H$2,AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="7">
+        <f>IF(OR(AND($L31&lt;&gt;"",OR($J31=instellingen!$H$5,$J31=instellingen!$H$6,,$J31=instellingen!$H$7)),AND(ISBLANK($L31),OR($J31=instellingen!$H$3,$J31=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <f>IF(ISBLANK($M31),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="7">
+        <f>IF(AND($M31=instellingen!$I$2,AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7">
+        <f>IF(AND($N31&lt;&gt;"",OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7">
+        <f>IF(AND(ISBLANK($N31),$M31=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7">
+        <f>IF(ISBLANK($O31),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="7">
+        <f>IF(AND(OR($O31=instellingen!$I$3,$O31=instellingen!$I$4),OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7">
+        <f>IF(AND($O31=instellingen!$I$2,$M31=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="7">
+        <f>IF(AND($P31&lt;&gt;"",OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7">
+        <f>IF(AND(ISBLANK($P31),$M31=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <f>SUM(R31:AE31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="30"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F32" s="39"/>
+      <c r="G32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="53"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="7">
+        <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="7">
+        <f>IF(AND(ISBLANK($I44),AND($H44&lt;&gt;"",$G44&lt;&gt;instellingen!$G$2),AND(ISBLANK($N44))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <f>IF(ISBLANK($J32),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <f>IF(AND($J32=instellingen!$H$2,AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="7">
+        <f>IF(OR(AND($L32&lt;&gt;"",OR($J32=instellingen!$H$5,$J32=instellingen!$H$6,,$J32=instellingen!$H$7)),AND(ISBLANK($L32),OR($J32=instellingen!$H$3,$J32=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="7">
+        <f>IF(ISBLANK($M32),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <f>IF(AND($M32=instellingen!$I$2,AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="7">
+        <f>IF(AND($N32&lt;&gt;"",OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7">
+        <f>IF(AND(ISBLANK($N32),$M32=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7">
+        <f>IF(ISBLANK($O32),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="7">
+        <f>IF(AND(OR($O32=instellingen!$I$3,$O32=instellingen!$I$4),OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7">
+        <f>IF(AND($O32=instellingen!$I$2,$M32=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7">
+        <f>IF(AND($P32&lt;&gt;"",OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7">
+        <f>IF(AND(ISBLANK($P32),$M32=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <f>SUM(R32:AE32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="30"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F33" s="39"/>
+      <c r="G33" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="51"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="53"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="7">
+        <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <f>IF(AND(ISBLANK($I45),AND($H45&lt;&gt;"",$G45&lt;&gt;instellingen!$G$2),AND(ISBLANK($N45))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <f>IF(ISBLANK($J33),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <f>IF(AND($J33=instellingen!$H$2,AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <f>IF(OR(AND($L33&lt;&gt;"",OR($J33=instellingen!$H$5,$J33=instellingen!$H$6,,$J33=instellingen!$H$7)),AND(ISBLANK($L33),OR($J33=instellingen!$H$3,$J33=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <f>IF(ISBLANK($M33),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <f>IF(AND($M33=instellingen!$I$2,AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <f>IF(AND($N33&lt;&gt;"",OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
+        <f>IF(AND(ISBLANK($N33),$M33=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7">
+        <f>IF(ISBLANK($O33),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="7">
+        <f>IF(AND(OR($O33=instellingen!$I$3,$O33=instellingen!$I$4),OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7">
+        <f>IF(AND($O33=instellingen!$I$2,$M33=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="7">
+        <f>IF(AND($P33&lt;&gt;"",OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="7">
+        <f>IF(AND(ISBLANK($P33),$M33=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <f>SUM(R33:AE33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="30"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72" hidden="true">
+      <c r="F34" s="39"/>
+      <c r="G34" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="53"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="7">
+        <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="7">
+        <f>IF(AND(ISBLANK($I46),AND($H46&lt;&gt;"",$G46&lt;&gt;instellingen!$G$2),AND(ISBLANK($N46))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <f>IF(ISBLANK($J34),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="7">
+        <f>IF(AND($J34=instellingen!$H$2,AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="7">
+        <f>IF(OR(AND($L34&lt;&gt;"",OR($J34=instellingen!$H$5,$J34=instellingen!$H$6,,$J34=instellingen!$H$7)),AND(ISBLANK($L34),OR($J34=instellingen!$H$3,$J34=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="7">
+        <f>IF(ISBLANK($M34),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="7">
+        <f>IF(AND($M34=instellingen!$I$2,AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7">
+        <f>IF(AND($N34&lt;&gt;"",OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7">
+        <f>IF(AND(ISBLANK($N34),$M34=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7">
+        <f>IF(ISBLANK($O34),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="7">
+        <f>IF(AND(OR($O34=instellingen!$I$3,$O34=instellingen!$I$4),OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7">
+        <f>IF(AND($O34=instellingen!$I$2,$M34=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="7">
+        <f>IF(AND($P34&lt;&gt;"",OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="7">
+        <f>IF(AND(ISBLANK($P34),$M34=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <f>SUM(R34:AE34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="30"/>
-    </row>
-    <row r="36" spans="1:17" hidden="true">
-      <c r="F36" s="30"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-    </row>
-    <row r="37" spans="1:17" hidden="true">
+      <c r="F35" s="39"/>
+      <c r="G35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="53"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="7">
+        <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="7">
+        <f>IF(AND(ISBLANK($I47),AND($H47&lt;&gt;"",$G47&lt;&gt;instellingen!$G$2),AND(ISBLANK($N47))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <f>IF(ISBLANK($J35),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <f>IF(AND($J35=instellingen!$H$2,AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="7">
+        <f>IF(OR(AND($L35&lt;&gt;"",OR($J35=instellingen!$H$5,$J35=instellingen!$H$6,,$J35=instellingen!$H$7)),AND(ISBLANK($L35),OR($J35=instellingen!$H$3,$J35=instellingen!$H$4,))),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <f>IF(ISBLANK($M35),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <f>IF(AND($M35=instellingen!$I$2,AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="7">
+        <f>IF(AND($N35&lt;&gt;"",OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7">
+        <f>IF(AND(ISBLANK($N35),$M35=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="7">
+        <f>IF(ISBLANK($O35),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="7">
+        <f>IF(AND(OR($O35=instellingen!$I$3,$O35=instellingen!$I$4),OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="7">
+        <f>IF(AND($O35=instellingen!$I$2,$M35=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="7">
+        <f>IF(AND($P35&lt;&gt;"",OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="7">
+        <f>IF(AND(ISBLANK($P35),$M35=instellingen!$I$3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <f>SUM(R35:AE35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" hidden="true">
+      <c r="F36" s="39"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+    </row>
+    <row r="37" spans="1:32" hidden="true">
       <c r="C37" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="37" t="str">
+        <v>46</v>
+      </c>
+      <c r="D37" s="2">
+        <v>668</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="30"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
+      </c>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+    </row>
+    <row r="38" spans="1:32" customHeight="1" ht="72" hidden="true">
+      <c r="F38" s="39"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="puRgrYCDnCsuTz2/h2Po69QZMNx3noAt/zHUQ+KS3fUVuWgjxNI1iLFxgXmxzrPLo/RLpcodW5Gh/dGtEsH9hA==" saltValue="ddgoaj2XY5T+0BSM3eqGrA==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4164,6 +6913,49 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R6:AE35">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -755,6 +755,59 @@
         <u val="none"/>
       </rPr>
       <t xml:space="preserve">, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De kolommen G, J, M en O bevatten zogenaamde </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">dropdown</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">-menu's. Gebruik deze voor de invoer. Dat klinkt als een open deur, maar: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">niet</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> handmatig overschrijven!</t>
     </r>
   </si>
   <si>
@@ -1154,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1279,6 +1332,17 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="7" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="8" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
@@ -1331,6 +1395,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="7" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
@@ -1339,12 +1407,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="8" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -1930,10 +2002,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="160" zoomScaleNormal="160" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2020,16 +2092,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" customHeight="1" ht="25.5">
+    <row r="14" spans="1:3" customHeight="1" ht="34.5">
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:3" customHeight="1" ht="25.5">
+      <c r="A15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="30"/>
@@ -2076,8 +2153,11 @@
     <row r="30" spans="1:3">
       <c r="B30" s="30"/>
     </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="30"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TeAQE6RCNzwVHdzX9FyhNliu8+va5Lkdju/NK44UuWH5aKez5DYz9/6S7j5dD7ZLPVVot43sIduw8tqQQ+uX7w==" saltValue="Ebq71HmY02pxWYdAxAbGAA==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d3VswOBugDSEcxizlCATwXTFi6niRv28FXqfpcai5ufO11YVowrXNjWqvWMa6vNZE7UYAIjZmiJwrdm2DCGv8g==" saltValue="ZguTsVH23F+wBjJXMNYuDw==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2146,139 +2226,139 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="40">
+        <v>43</v>
+      </c>
+      <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="42" t="str">
+      <c r="G2" s="45" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige M2 (cohort 2021 - 2022)</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="44" t="str">
+      <c r="F4" s="42"/>
+      <c r="G4" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>KCKV leerlaag M3 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="J5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="O5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="P5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -2336,38 +2416,38 @@
         <v>verplichte SE-domeinen</v>
       </c>
       <c r="AF5" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="39"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="28"/>
-      <c r="Q6" s="49"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2431,33 +2511,33 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="27"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P7" s="28"/>
-      <c r="Q7" s="49"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2521,33 +2601,33 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>262</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="39"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P8" s="28"/>
-      <c r="Q8" s="49"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2611,7 +2691,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2619,26 +2699,26 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="39"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="28"/>
-      <c r="Q9" s="49"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2702,34 +2782,34 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44345.648541667</v>
+        <v>44346.429467593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="27"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P10" s="28"/>
-      <c r="Q10" s="49"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2793,7 +2873,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2801,26 +2881,26 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="39"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="27"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P11" s="28"/>
-      <c r="Q11" s="49"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2884,24 +2964,24 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -2919,33 +2999,33 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
         <v>640</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="47" t="str">
+      <c r="F13" s="42"/>
+      <c r="G13" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M3 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -2963,13 +3043,13 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>2</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -2977,10 +3057,10 @@
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="49"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="52"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -2998,24 +3078,24 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -3033,24 +3113,24 @@
     </row>
     <row r="16" spans="1:32" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="44" t="str">
+      <c r="F16" s="42"/>
+      <c r="G16" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>KCKV leerlaag M4 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -3068,43 +3148,43 @@
     </row>
     <row r="17" spans="1:32" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="45" t="s">
+      <c r="H17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="I17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="J17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="K17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="L17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="M17" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="N17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="O17" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -3123,26 +3203,26 @@
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="57"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="58"/>
+      <c r="O18" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3207,26 +3287,26 @@
     <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="49"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="58"/>
+      <c r="O19" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3291,26 +3371,26 @@
     <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="58"/>
+      <c r="O20" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="52"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3375,26 +3455,26 @@
     <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="49"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="57"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="58"/>
+      <c r="O21" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="52"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3459,26 +3539,26 @@
     <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="49"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="58"/>
+      <c r="O22" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3543,26 +3623,26 @@
     <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="57"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="58"/>
+      <c r="O23" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="52"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3625,18 +3705,18 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="39"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -3654,26 +3734,26 @@
     </row>
     <row r="25" spans="1:32">
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>641</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="47" t="str">
+      <c r="F25" s="42"/>
+      <c r="G25" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M4 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -3690,18 +3770,18 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="39"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -3718,18 +3798,18 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="39"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3747,24 +3827,24 @@
     </row>
     <row r="28" spans="1:32" customHeight="1" ht="30.75" hidden="true">
       <c r="C28" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="44" t="str">
+      <c r="F28" s="42"/>
+      <c r="G28" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>KCKV leerlaag M5 (schooljaar 2023 - 2022)</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3782,43 +3862,43 @@
     </row>
     <row r="29" spans="1:32" customHeight="1" ht="34.5" hidden="true">
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="45" t="s">
+      <c r="H29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="J29" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="L29" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="N29" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="O29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="P29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3837,26 +3917,26 @@
     <row r="30" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="49"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="57"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="58"/>
+      <c r="O30" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3921,26 +4001,26 @@
     <row r="31" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="49"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="57"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="58"/>
+      <c r="O31" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="52"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4005,26 +4085,26 @@
     <row r="32" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="49"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="57"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="58"/>
+      <c r="O32" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4089,26 +4169,26 @@
     <row r="33" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="49"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="57"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="58"/>
+      <c r="O33" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="52"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4173,26 +4253,26 @@
     <row r="34" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="49"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="57"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="58"/>
+      <c r="O34" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="52"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4257,26 +4337,26 @@
     <row r="35" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="57"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="58"/>
+      <c r="O35" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="52"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4339,56 +4419,56 @@
       </c>
     </row>
     <row r="36" spans="1:32" hidden="true">
-      <c r="F36" s="39"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32" hidden="true">
       <c r="C37" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="47" t="str">
+      <c r="F37" s="42"/>
+      <c r="G37" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M5 (schooljaar 2023 - 2022)</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="39"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="puRgrYCDnCsuTz2/h2Po69QZMNx3noAt/zHUQ+KS3fUVuWgjxNI1iLFxgXmxzrPLo/RLpcodW5Gh/dGtEsH9hA==" saltValue="ddgoaj2XY5T+0BSM3eqGrA==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4448,7 +4528,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <dataValidations count="21">
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
       <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
@@ -4457,6 +4537,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
       <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
       <formula1>instellingen!$H$2:$H$7</formula1>
@@ -4467,6 +4559,18 @@
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
       <formula1>instellingen!$H$2:$H$7</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
       <formula1>instellingen!$I$2:$I$4</formula1>
     </dataValidation>
@@ -4475,6 +4579,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
       <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
       <formula1>instellingen!$I$2:$I$4</formula1>
@@ -4554,139 +4670,139 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="40">
+        <v>43</v>
+      </c>
+      <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="42" t="str">
+      <c r="G2" s="45" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige M3 (cohort 2020 - 2021)</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="44" t="str">
+      <c r="F4" s="42"/>
+      <c r="G4" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="J5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="O5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="P5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -4744,48 +4860,48 @@
         <v>verplichte SE-domeinen</v>
       </c>
       <c r="AF5" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
         <v>550</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="46">
+      <c r="F6" s="42"/>
+      <c r="G6" s="49">
         <v>1</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="46">
+      <c r="H6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="55">
         <v>1</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46" t="s">
+      <c r="K6" s="57"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="54">
+      <c r="N6" s="58">
         <v>1</v>
       </c>
-      <c r="O6" s="54" t="s">
+      <c r="O6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="49"/>
+      <c r="P6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="52"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4849,7 +4965,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4858,34 +4974,34 @@
         <v>551</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="46">
+      <c r="F7" s="42"/>
+      <c r="G7" s="49">
         <v>2</v>
       </c>
-      <c r="H7" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="46">
+      <c r="H7" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="55">
         <v>1</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="58">
         <v>1</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="49"/>
+      <c r="P7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="52"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4949,7 +5065,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>169</v>
@@ -4958,34 +5074,34 @@
         <v>552</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="46">
+      <c r="F8" s="42"/>
+      <c r="G8" s="49">
         <v>2</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="46">
+      <c r="H8" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="55">
         <v>1</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46" t="s">
+      <c r="K8" s="57"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="58">
         <v>1</v>
       </c>
-      <c r="O8" s="54" t="s">
+      <c r="O8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="49"/>
+      <c r="P8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="52"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5049,7 +5165,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5059,34 +5175,34 @@
         <v>553</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="46">
+      <c r="F9" s="42"/>
+      <c r="G9" s="49">
         <v>3</v>
       </c>
-      <c r="H9" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="46">
+      <c r="H9" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="55">
         <v>1</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46" t="s">
+      <c r="K9" s="57"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9" s="58">
         <v>1</v>
       </c>
-      <c r="O9" s="54" t="s">
+      <c r="O9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="49"/>
+      <c r="P9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="52"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5150,44 +5266,44 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44345.648541667</v>
+        <v>44346.429467593</v>
       </c>
       <c r="D10" s="2">
         <v>554</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="46">
+      <c r="F10" s="42"/>
+      <c r="G10" s="49">
         <v>3</v>
       </c>
-      <c r="H10" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="46">
+      <c r="H10" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="55">
         <v>1</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46" t="s">
+      <c r="K10" s="57"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="58">
         <v>1</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="49"/>
+      <c r="P10" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="52"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5251,7 +5367,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5261,34 +5377,34 @@
         <v>555</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="46">
+      <c r="F11" s="42"/>
+      <c r="G11" s="49">
         <v>4</v>
       </c>
-      <c r="H11" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="46">
+      <c r="H11" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="55">
         <v>2</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46" t="s">
+      <c r="K11" s="57"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="54">
+      <c r="N11" s="58">
         <v>2</v>
       </c>
-      <c r="O11" s="54" t="s">
+      <c r="O11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="49"/>
+      <c r="P11" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="52"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5352,24 +5468,24 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -5387,33 +5503,33 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
         <v>421</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="47" t="str">
+      <c r="F13" s="42"/>
+      <c r="G13" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -5431,24 +5547,24 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -5466,24 +5582,24 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -5501,24 +5617,24 @@
     </row>
     <row r="16" spans="1:32" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="44" t="str">
+      <c r="F16" s="42"/>
+      <c r="G16" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -5536,43 +5652,43 @@
     </row>
     <row r="17" spans="1:32" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="45" t="s">
+      <c r="H17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="I17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="J17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="K17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="L17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="M17" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="N17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="O17" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -5591,26 +5707,26 @@
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="57"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="58"/>
+      <c r="O18" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5675,26 +5791,26 @@
     <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="49"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="58"/>
+      <c r="O19" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5759,26 +5875,26 @@
     <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="58"/>
+      <c r="O20" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="52"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5843,26 +5959,26 @@
     <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="49"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="57"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="58"/>
+      <c r="O21" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="52"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5927,26 +6043,26 @@
     <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="49"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="58"/>
+      <c r="O22" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6011,26 +6127,26 @@
     <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="57"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="58"/>
+      <c r="O23" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="52"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6093,18 +6209,18 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="39"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6122,26 +6238,26 @@
     </row>
     <row r="25" spans="1:32">
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>422</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="47" t="str">
+      <c r="F25" s="42"/>
+      <c r="G25" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -6158,18 +6274,18 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="39"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6186,18 +6302,18 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="39"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6215,24 +6331,24 @@
     </row>
     <row r="28" spans="1:32" customHeight="1" ht="30.75" hidden="true">
       <c r="C28" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="44" t="str">
+      <c r="F28" s="42"/>
+      <c r="G28" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6250,43 +6366,43 @@
     </row>
     <row r="29" spans="1:32" customHeight="1" ht="34.5" hidden="true">
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="45" t="s">
+      <c r="H29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="J29" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="L29" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="N29" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="O29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="P29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -6305,26 +6421,26 @@
     <row r="30" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="49"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="57"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="58"/>
+      <c r="O30" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6389,26 +6505,26 @@
     <row r="31" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="49"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="57"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="58"/>
+      <c r="O31" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="52"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6473,26 +6589,26 @@
     <row r="32" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="49"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="57"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="58"/>
+      <c r="O32" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6557,26 +6673,26 @@
     <row r="33" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="49"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="57"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="58"/>
+      <c r="O33" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="52"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6641,26 +6757,26 @@
     <row r="34" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="49"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="57"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="58"/>
+      <c r="O34" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="52"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6725,26 +6841,26 @@
     <row r="35" spans="1:32" customHeight="1" ht="72" hidden="true">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="57"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="58"/>
+      <c r="O35" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="52"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6807,58 +6923,58 @@
       </c>
     </row>
     <row r="36" spans="1:32" hidden="true">
-      <c r="F36" s="39"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32" hidden="true">
       <c r="C37" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2">
         <v>668</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="47" t="str">
+      <c r="F37" s="42"/>
+      <c r="G37" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="39"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="puRgrYCDnCsuTz2/h2Po69QZMNx3noAt/zHUQ+KS3fUVuWgjxNI1iLFxgXmxzrPLo/RLpcodW5Gh/dGtEsH9hA==" saltValue="ddgoaj2XY5T+0BSM3eqGrA==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6918,7 +7034,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <dataValidations count="21">
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
       <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
@@ -6927,6 +7043,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
       <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
       <formula1>instellingen!$H$2:$H$7</formula1>
@@ -6937,6 +7065,18 @@
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
       <formula1>instellingen!$H$2:$H$7</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
       <formula1>instellingen!$I$2:$I$4</formula1>
     </dataValidation>
@@ -6945,6 +7085,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
       <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
       <formula1>instellingen!$I$2:$I$4</formula1>

--- a/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -880,15 +880,35 @@
     <t>M</t>
   </si>
   <si>
+    <t xml:space="preserve">Culturele Activiteit 1 (CA1) + beeldende verwerking = beoordeling kunstdossier periode 1
+</t>
+  </si>
+  <si>
+    <t>K2/K3</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
+    <t xml:space="preserve">Oriëntatie op leren en werken + CA 2 + Beeldende verwerking = beoordeling kunstdossier periode 2 </t>
+  </si>
+  <si>
+    <t>K1/K2</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
+    <t xml:space="preserve">Culturele Activiteit 3(CA3) + beeldende verwerking = beoordeling kunstdossier periode 3
+</t>
+  </si>
+  <si>
     <t>eindJaar</t>
   </si>
   <si>
+    <t>Culturele Activiteit 4 (CA4) + beeldende verwerking + reflectie = afronding kunstdossier</t>
+  </si>
+  <si>
     <t>vandaag</t>
   </si>
   <si>
@@ -902,6 +922,9 @@
   </si>
   <si>
     <t>groep</t>
+  </si>
+  <si>
+    <t>Beoordeling O/V/G per periode afgeronde activiteiten zoals vermeld in het PTA. Het kunstdossier moet met een voldoende worden afgesloten.</t>
   </si>
   <si>
     <t>mavo?</t>
@@ -911,13 +934,7 @@
 </t>
   </si>
   <si>
-    <t>K2/K3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oriëntatie op leren en werken </t>
-  </si>
-  <si>
-    <t>K1/K2</t>
   </si>
   <si>
     <t xml:space="preserve">Culturele Activiteit 2 (CA2) + verwerking 
@@ -988,6 +1005,24 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -1003,6 +1038,15 @@
       <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFD8D8D8"/>
       <name val="Segoe UI"/>
     </font>
     <font>
@@ -1037,35 +1081,8 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFD8D8D8"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="26"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFF2F2F2"/>
       <name val="Segoe UI"/>
     </font>
   </fonts>
@@ -1123,13 +1140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
+        <fgColor rgb="FF223962"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF223962"/>
+        <fgColor rgb="FFED7D31"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1207,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="50">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1259,20 +1276,32 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="11" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1281,7 +1310,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -1289,7 +1318,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -1297,9 +1326,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1307,16 +1339,16 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,12 +1357,11 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1343,93 +1374,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="1" fillId="7" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="1" fillId="8" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1950,31 +1903,31 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" customHeight="1" ht="15.75">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" customHeight="1" ht="15.75">
-      <c r="A11" s="20"/>
+      <c r="A11" s="23"/>
       <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
@@ -2016,145 +1969,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="74.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" customHeight="1" ht="106.5">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" customHeight="1" ht="161.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" customHeight="1" ht="107.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="29" customFormat="1">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="34" customFormat="1">
+      <c r="A11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" customHeight="1" ht="51.75">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" customHeight="1" ht="25.5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="30"/>
+      <c r="B16" s="35"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="30"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="30"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="30"/>
+      <c r="B19" s="35"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="35"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="30"/>
+      <c r="B21" s="35"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="30"/>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="30"/>
+      <c r="B23" s="35"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="30"/>
+      <c r="B24" s="35"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="30"/>
+      <c r="B25" s="35"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="30"/>
+      <c r="B26" s="35"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="30"/>
+      <c r="B27" s="35"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="30"/>
+      <c r="B28" s="35"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="30"/>
+      <c r="B29" s="35"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="30"/>
+      <c r="B30" s="35"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="30"/>
+      <c r="B31" s="35"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d3VswOBugDSEcxizlCATwXTFi6niRv28FXqfpcai5ufO11YVowrXNjWqvWMa6vNZE7UYAIjZmiJwrdm2DCGv8g==" saltValue="ZguTsVH23F+wBjJXMNYuDw==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2181,17 +2134,17 @@
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="42"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -2203,21 +2156,6 @@
     <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
     <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
     <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
-    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
-    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
-    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
-    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
-    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
-    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
-    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
-    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
-    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
-    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
-    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
-    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
-    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
-    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -2226,20 +2164,9 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
@@ -2252,20 +2179,17 @@
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="45" t="str">
+      <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige M2 (cohort 2021 - 2022)</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
@@ -2274,18 +2198,6 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
@@ -2298,21 +2210,10 @@
         <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="47" t="str">
+      <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>KCKV leerlaag M3 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
@@ -2324,41 +2225,39 @@
       <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -2415,7 +2314,7 @@
         <f>P5</f>
         <v>verplichte SE-domeinen</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2426,28 +2325,36 @@
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1108</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="52"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="45">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="46">
+        <v>1</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2511,33 +2418,41 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1109</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="52"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="45">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="46">
+        <v>1</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2601,33 +2516,41 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>262</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1110</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="52"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="45">
+        <v>1</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="46">
+        <v>1</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2691,34 +2614,42 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1111</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="52"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="45">
+        <v>2</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="46">
+        <v>1</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2782,34 +2713,32 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44346.429467593</v>
+        <v>44364.591840278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="52"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="46"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2873,7 +2802,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2881,26 +2810,24 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="52"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2964,24 +2891,12 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -2999,7 +2914,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3011,21 +2926,16 @@
       <c r="D13" s="2">
         <v>640</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="50" t="str">
+      <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M3 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -3043,24 +2953,21 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>2</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="52"/>
+      <c r="G14" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -3078,24 +2985,12 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -3116,21 +3011,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47" t="str">
+      <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>KCKV leerlaag M4 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -3150,41 +3034,39 @@
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -3203,26 +3085,24 @@
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="52"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="46"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3287,26 +3167,24 @@
     <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="58"/>
-      <c r="O19" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="52"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="46"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3371,26 +3249,24 @@
     <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="52"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="46"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3455,26 +3331,24 @@
     <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="58"/>
-      <c r="O21" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="52"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="46"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3539,26 +3413,24 @@
     <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="52"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3623,26 +3495,24 @@
     <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="52"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3705,18 +3575,6 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="42"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -3739,21 +3597,16 @@
       <c r="D25" s="2">
         <v>641</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="50" t="str">
+      <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M4 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -3770,18 +3623,13 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="42"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -3798,18 +3646,6 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="42"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3825,26 +3661,15 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28" spans="1:32" customHeight="1" ht="30.75" hidden="true">
+    <row r="28" spans="1:32" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>KCKV leerlaag M5 (schooljaar 2023 - 2022)</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3860,45 +3685,43 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:32" customHeight="1" ht="34.5" hidden="true">
+    <row r="29" spans="1:32" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="48" t="s">
+      <c r="N29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3914,29 +3737,27 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="30" spans="1:32" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="52"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3998,29 +3819,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="31" spans="1:32" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="52"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="46"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4082,29 +3901,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="32" spans="1:32" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="52"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="46"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4166,29 +3983,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="52"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="46"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4250,29 +4065,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="52"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="46"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4334,29 +4147,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="58"/>
-      <c r="O35" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="52"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4418,57 +4229,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="true">
-      <c r="F36" s="42"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-    </row>
-    <row r="37" spans="1:32" hidden="true">
+    <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50" t="str">
+      <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M5 (schooljaar 2023 - 2022)</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-    </row>
-    <row r="38" spans="1:32" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="42"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+    </row>
+    <row r="38" spans="1:32" customHeight="1" ht="72">
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4625,17 +4412,17 @@
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="42"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -4647,21 +4434,6 @@
     <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
     <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
     <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
-    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
-    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
-    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
-    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
-    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
-    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
-    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
-    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
-    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
-    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
-    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
-    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
-    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
-    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -4670,20 +4442,9 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
@@ -4696,20 +4457,17 @@
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="45" t="str">
+      <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige M3 (cohort 2020 - 2021)</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
@@ -4718,18 +4476,6 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
@@ -4742,21 +4488,10 @@
         <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="47" t="str">
+      <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
@@ -4768,41 +4503,39 @@
       <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -4859,7 +4592,7 @@
         <f>P5</f>
         <v>verplichte SE-domeinen</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4874,34 +4607,32 @@
         <v>550</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="49">
+      <c r="G6" s="27">
         <v>1</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="55">
+      <c r="H6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="45">
         <v>1</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="49" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="58">
+      <c r="N6" s="46">
         <v>1</v>
       </c>
-      <c r="O6" s="60" t="s">
+      <c r="O6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="52"/>
+      <c r="P6" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4965,7 +4696,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4974,34 +4705,32 @@
         <v>551</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="49">
+      <c r="G7" s="27">
         <v>2</v>
       </c>
-      <c r="H7" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="55">
+      <c r="H7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="45">
         <v>1</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="49" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="58">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
-      <c r="O7" s="60" t="s">
+      <c r="O7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5065,7 +4794,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>169</v>
@@ -5074,34 +4803,32 @@
         <v>552</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="49">
+      <c r="G8" s="27">
         <v>2</v>
       </c>
-      <c r="H8" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="55">
+      <c r="H8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="45">
         <v>1</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="49" t="s">
+      <c r="K8" s="30"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="58">
+      <c r="N8" s="46">
         <v>1</v>
       </c>
-      <c r="O8" s="60" t="s">
+      <c r="O8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="52"/>
+      <c r="P8" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5165,7 +4892,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5175,34 +4902,32 @@
         <v>553</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="49">
+      <c r="G9" s="27">
         <v>3</v>
       </c>
-      <c r="H9" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="55">
+      <c r="H9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="45">
         <v>1</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="49" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="46">
         <v>1</v>
       </c>
-      <c r="O9" s="60" t="s">
+      <c r="O9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="52"/>
+      <c r="P9" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5266,44 +4991,42 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44346.429467593</v>
+        <v>44364.591840278</v>
       </c>
       <c r="D10" s="2">
         <v>554</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="49">
+      <c r="G10" s="27">
         <v>3</v>
       </c>
-      <c r="H10" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="55">
+      <c r="H10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="45">
         <v>1</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="49" t="s">
+      <c r="K10" s="30"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="58">
+      <c r="N10" s="46">
         <v>1</v>
       </c>
-      <c r="O10" s="60" t="s">
+      <c r="O10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="52"/>
+      <c r="P10" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5367,7 +5090,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5377,34 +5100,32 @@
         <v>555</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="49">
+      <c r="G11" s="27">
         <v>4</v>
       </c>
-      <c r="H11" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="55">
+      <c r="H11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="45">
         <v>2</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="49" t="s">
+      <c r="K11" s="30"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="46">
         <v>2</v>
       </c>
-      <c r="O11" s="60" t="s">
+      <c r="O11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="52"/>
+      <c r="P11" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5468,24 +5189,12 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -5503,7 +5212,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5515,21 +5224,16 @@
       <c r="D13" s="2">
         <v>421</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="50" t="str">
+      <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M3 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -5547,24 +5251,19 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -5582,24 +5281,12 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>3</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -5620,21 +5307,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47" t="str">
+      <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -5654,41 +5330,39 @@
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -5707,26 +5381,24 @@
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="52"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="46"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5791,26 +5463,24 @@
     <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="58"/>
-      <c r="O19" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="52"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="46"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5875,26 +5545,24 @@
     <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="52"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="46"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5959,26 +5627,24 @@
     <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="58"/>
-      <c r="O21" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="52"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="46"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6043,26 +5709,24 @@
     <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="52"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6127,26 +5791,24 @@
     <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="52"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6209,18 +5871,6 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="42"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6243,21 +5893,16 @@
       <c r="D25" s="2">
         <v>422</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="50" t="str">
+      <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -6274,18 +5919,13 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="42"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6302,18 +5942,6 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="42"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6329,26 +5957,15 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28" spans="1:32" customHeight="1" ht="30.75" hidden="true">
+    <row r="28" spans="1:32" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6364,45 +5981,43 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:32" customHeight="1" ht="34.5" hidden="true">
+    <row r="29" spans="1:32" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="48" t="s">
+      <c r="N29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -6418,29 +6033,27 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="30" spans="1:32" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="52"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6502,29 +6115,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="31" spans="1:32" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="52"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="46"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6586,29 +6197,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="32" spans="1:32" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="52"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="46"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6670,29 +6279,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="52"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="46"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6754,29 +6361,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="52"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="46"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6838,29 +6443,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" customHeight="1" ht="72" hidden="true">
+    <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="58"/>
-      <c r="O35" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="52"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6922,59 +6525,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="true">
-      <c r="F36" s="42"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-    </row>
-    <row r="37" spans="1:32" hidden="true">
+    <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="2">
         <v>668</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50" t="str">
+      <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-    </row>
-    <row r="38" spans="1:32" customHeight="1" ht="72" hidden="true">
-      <c r="F38" s="42"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+    </row>
+    <row r="38" spans="1:32" customHeight="1" ht="72">
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KCKV PTA en onderwijsprogramma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -882,6 +882,9 @@
   <si>
     <t xml:space="preserve">Culturele Activiteit 1 (CA1) + beeldende verwerking = beoordeling kunstdossier periode 1
 </t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>K2/K3</t>
@@ -2326,7 +2329,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="2">
-        <v>1108</v>
+        <v>1119</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
@@ -2350,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -2418,20 +2421,20 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
       <c r="D7" s="2">
-        <v>1109</v>
+        <v>1120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -2448,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2516,20 +2519,20 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>262</v>
       </c>
       <c r="D8" s="2">
-        <v>1110</v>
+        <v>1121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2546,10 +2549,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -2614,21 +2617,21 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
       <c r="D9" s="2">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2645,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2713,11 +2716,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541122685</v>
+        <v>44378.451354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2802,7 +2805,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2891,7 +2894,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2953,14 +2956,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>2</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -2985,7 +2988,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4611,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4628,10 +4631,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -4696,7 +4699,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4709,7 +4712,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4726,10 +4729,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4794,7 +4797,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>169</v>
@@ -4807,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4824,10 +4827,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -4892,7 +4895,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4906,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -4923,10 +4926,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -4991,11 +4994,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541122685</v>
+        <v>44378.451354167</v>
       </c>
       <c r="D10" s="2">
         <v>554</v>
@@ -5005,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5022,10 +5025,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5090,7 +5093,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5104,7 +5107,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5121,10 +5124,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5189,7 +5192,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5212,7 +5215,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5251,7 +5254,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5281,7 +5284,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
